--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-528599.7640068834</v>
+        <v>-531195.203879021</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>374.2950982244122</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3406336089034</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>177.0819348204968</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>24.55276019063743</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>21.3456428109064</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>316.7059342566838</v>
+        <v>247.1920619803348</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.2749433350629</v>
+        <v>203.7480427661293</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>129.5931778636074</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>312.8672582949305</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>131.6648524490606</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>217.4511988233901</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>12.96996784159911</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>238.3052845335095</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>80.90831282609498</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>169.8538311717804</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.56693137108351</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>34.00490843294713</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>104.3471808964298</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>100.7362831624776</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>32.27552175740432</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>78.91051008678096</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>189.7822042251789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5981994227934</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.037304489524</v>
+        <v>1198.574246756697</v>
       </c>
       <c r="C2" t="n">
-        <v>944.074787549112</v>
+        <v>1198.574246756697</v>
       </c>
       <c r="D2" t="n">
-        <v>585.8090889423615</v>
+        <v>840.3085481499463</v>
       </c>
       <c r="E2" t="n">
-        <v>585.8090889423615</v>
+        <v>840.3085481499463</v>
       </c>
       <c r="F2" t="n">
-        <v>174.823184152754</v>
+        <v>429.3226433603388</v>
       </c>
       <c r="G2" t="n">
-        <v>174.823184152754</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2383.46868716733</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2383.46868716733</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2052.405799823759</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1699.637144553645</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1699.637144553645</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1699.637144553645</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.90341785788</v>
+        <v>2013.576367813029</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9672349299731</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8505955176373</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>222.9375019352442</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>76.04755443733384</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>2241.565918711047</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.34446183165</v>
+        <v>2013.576367813029</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.5518826881197</v>
+        <v>2013.576367813029</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1284.324637962024</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059685</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.324637962024</v>
+        <v>2312.650376904868</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>453.7539249574967</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C7" t="n">
-        <v>453.7539249574967</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4720,55 +4720,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070927</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X7" t="n">
-        <v>565.1427566090754</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="Y7" t="n">
-        <v>453.7539249574967</v>
+        <v>655.4757608970647</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
         <v>1934.208022973022</v>
@@ -4796,58 +4796,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="W8" t="n">
-        <v>2693.309871889246</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="X8" t="n">
-        <v>2693.309871889246</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.170539913434</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,10 +4887,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>663.2461408939903</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>494.3099579660834</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>494.3099579660834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>346.3968643836903</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>199.5069168857799</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>199.5069168857799</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>942.0929019985934</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X10" t="n">
-        <v>714.1033511005761</v>
+        <v>1065.68718486776</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>844.89460572423</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,16 +5130,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532263</v>
+        <v>1029.681434529217</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>860.74525160131</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>710.6286121889742</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>562.7155186065811</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>415.8255711086707</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>248.6294718235507</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>106.9176406657488</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.350136867861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.665648661974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.248478625013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.258927726996</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.466348583466</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5361,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.306025422647</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C19" t="n">
-        <v>929.3698424947402</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D19" t="n">
-        <v>779.2532030824044</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>631.3401095000113</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.4501620021009</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.2540627169809</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.5422315591789</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.747069396417</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y19" t="n">
-        <v>1279.954490252887</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5905,55 +5905,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2404.976284215525</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2222.121449870429</v>
+        <v>2345.568987476151</v>
       </c>
       <c r="T22" t="n">
-        <v>2002.519984893371</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.444758237568</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.760270031681</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.343099994721</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511905</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
         <v>1373.553594266881</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711973</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6139,16 +6139,16 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1872.059887685832</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1617.375399479945</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.958229442984</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544967</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.176099401437</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171305</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C28" t="n">
-        <v>733.4550657171305</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
         <v>631.7012443408905</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473703</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,19 +6716,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466574</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7026,10 +7026,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580114</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7795,25 +7795,25 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>265.0304328515149</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>37.25260454854174</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>11.08768760390603</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.57625015973698</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986288</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>68.2958684769664</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>47.87918985573464</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-3.348075624116555e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>105.0969227051391</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986248</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3575234924705484</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>24.80831533903818</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>147.0213775686975</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>181.8372934928143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>47.87918985573475</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>34.09972495271734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.4949402405073</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>62.35543909864907</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9259388694754591</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-3.836930773104541e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.796340981529261e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1158723.120068432</v>
+        <v>1158723.120068431</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1158723.120068431</v>
+        <v>1158723.120068432</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1158723.120068431</v>
+        <v>1158723.120068432</v>
       </c>
     </row>
     <row r="9">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758987</v>
+        <v>229059.6437758984</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
         <v>262322.644899252</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70378.67304475393</v>
+        <v>70378.67304475374</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26433,31 +26433,31 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756604</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756563</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756564</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>17328.05961985005</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985003</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985006</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1049008.58528462</v>
+        <v>-1049299.192449466</v>
       </c>
       <c r="C6" t="n">
         <v>37174.52907394493</v>
       </c>
       <c r="D6" t="n">
-        <v>-122246.740923947</v>
+        <v>-122246.7409239467</v>
       </c>
       <c r="E6" t="n">
-        <v>-173549.5470887671</v>
+        <v>-173584.285014203</v>
       </c>
       <c r="F6" t="n">
-        <v>151862.9147185885</v>
+        <v>151828.1767931525</v>
       </c>
       <c r="G6" t="n">
-        <v>151862.9147185883</v>
+        <v>151828.1767931526</v>
       </c>
       <c r="H6" t="n">
-        <v>151862.9147185882</v>
+        <v>151828.1767931525</v>
       </c>
       <c r="I6" t="n">
-        <v>151862.9147185881</v>
+        <v>151828.1767931525</v>
       </c>
       <c r="J6" t="n">
-        <v>-15742.2630913945</v>
+        <v>-15777.00101683007</v>
       </c>
       <c r="K6" t="n">
-        <v>151862.9147185883</v>
+        <v>151828.1767931526</v>
       </c>
       <c r="L6" t="n">
-        <v>103568.9447103975</v>
+        <v>103534.2067849619</v>
       </c>
       <c r="M6" t="n">
-        <v>66807.88678307633</v>
+        <v>66773.14885764066</v>
       </c>
       <c r="N6" t="n">
         <v>126918.6817384951</v>
       </c>
       <c r="O6" t="n">
-        <v>146346.3997321269</v>
+        <v>146346.3997321268</v>
       </c>
       <c r="P6" t="n">
         <v>146346.3997321267</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26790,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>178.677918953502</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>54.62222506856443</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>141.7538398541668</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>265.1773555256846</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>69.53200439936978</v>
+        <v>139.0458766757188</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.3097100170319</v>
+        <v>14.8366105859655</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>74.32479227601272</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>36.37371042248253</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>13.09016246526022</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>69.07179951320086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29284,13 +29284,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L23" t="n">
         <v>867.8464071162563</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018706</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33664,7 +33664,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>631.9617651335553</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>339.2956687594475</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
         <v>632.079992146269</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875403</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
